--- a/_HackandSlash/_HackandSlash/Asset/Data/ArmorItemData.xlsx
+++ b/_HackandSlash/_HackandSlash/Asset/Data/ArmorItemData.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
         <v>5</v>
@@ -554,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -588,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
@@ -605,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
@@ -639,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
@@ -673,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>

--- a/_HackandSlash/_HackandSlash/Asset/Data/ArmorItemData.xlsx
+++ b/_HackandSlash/_HackandSlash/Asset/Data/ArmorItemData.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -659,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
